--- a/src/main/java/resources/details.xlsx
+++ b/src/main/java/resources/details.xlsx
@@ -73,6 +73,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -102,9 +105,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,16 +404,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,39 +430,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>44289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="1" t="str">
+        <f>TEXT("April 21, 2021","yyyy-mm-dd")</f>
+        <v>2021-04-21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>44319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" s="2" t="str">
+        <f>TEXT("March 10, 2021","yyyy-mm-dd")</f>
+        <v>2021-03-10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -462,7 +474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -470,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -478,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -486,7 +498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>9</v>
       </c>

--- a/src/main/java/resources/details.xlsx
+++ b/src/main/java/resources/details.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>TestCases</t>
   </si>
@@ -28,9 +28,6 @@
   </si>
   <si>
     <t>Depature Date</t>
-  </si>
-  <si>
-    <t>ReturnDate</t>
   </si>
   <si>
     <t>Adults</t>
@@ -105,10 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -404,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -421,13 +417,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -435,18 +431,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
@@ -461,9 +457,8 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="str">
-        <f>TEXT("March 10, 2021","yyyy-mm-dd")</f>
-        <v>2021-03-10</v>
+      <c r="B5">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -479,15 +474,15 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -496,14 +491,6 @@
       </c>
       <c r="B9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/details.xlsx
+++ b/src/main/java/resources/details.xlsx
@@ -54,16 +54,16 @@
     <t>Hyderabad</t>
   </si>
   <si>
-    <t>Economy/Premium Economy</t>
+    <t>Data2</t>
+  </si>
+  <si>
+    <t>Data3</t>
+  </si>
+  <si>
+    <t>Premium Economy</t>
   </si>
   <si>
     <t>Regular Fare</t>
-  </si>
-  <si>
-    <t>Data2</t>
-  </si>
-  <si>
-    <t>Data3</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,10 +420,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -449,8 +449,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>TEXT("April 21, 2021","yyyy-mm-dd")</f>
-        <v>2021-04-21</v>
+        <f>TEXT("April 23, 2021","yyyy-mm-dd")</f>
+        <v>2021-04-23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -474,7 +474,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/resources/details.xlsx
+++ b/src/main/java/resources/details.xlsx
@@ -48,9 +48,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Regular Fare</t>
+  </si>
+  <si>
+    <t>Delhi</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -420,10 +420,10 @@
         <v>9</v>
       </c>
       <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -431,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2"/>
     </row>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -482,7 +482,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -490,7 +490,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
